--- a/ba/Use case examples.xlsx
+++ b/ba/Use case examples.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Corrdinating protests</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Query about some architecture</t>
+  </si>
+  <si>
+    <t>Gordon Ramsey best restaurants</t>
+  </si>
+  <si>
+    <t>Couples date locations and fav romatic spots</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,6 +500,16 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
